--- a/medicine/Œil et vue/Trifluridine/Trifluridine.xlsx
+++ b/medicine/Œil et vue/Trifluridine/Trifluridine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La trifluridine, également appelée trifluorothymidine [1] est un médicament antiviral utilisé comme collyre dans les infections à herpès.
+La trifluridine, également appelée trifluorothymidine  est un médicament antiviral utilisé comme collyre dans les infections à herpès.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On pense qu'il agit en arrêtant la création d'ADN viral. 
 </t>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trifluridine est un médicament antiviral utilisé pour traiter les infections oculaires à herpès simplex[1]. Il peut également être utilisé pour traiter les infections oculaires causées par la vaccine qui peuvent survenir après une vaccination contre la variole. Le médicament est utilisé comme collyre. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trifluridine est un médicament antiviral utilisé pour traiter les infections oculaires à herpès simplex. Il peut également être utilisé pour traiter les infections oculaires causées par la vaccine qui peuvent survenir après une vaccination contre la variole. Le médicament est utilisé comme collyre. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent l’irrigation, le gonflement des paupières ou la rougeur des yeux[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent l’irrigation, le gonflement des paupières ou la rougeur des yeux. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament  a été approuvée pour un usage médical aux États-Unis en 1980[1],[2]. Il est disponible sous forme de médicament générique et est également vendu sous le nom commercial Viroptic [3]. Aux États-Unis, un flacon de 7,5 ml coûte environ 74 dollars américains. C'est également un composant du médicament anticancéreux trifluridine/tipiracil [4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament  a été approuvée pour un usage médical aux États-Unis en 1980,. Il est disponible sous forme de médicament générique et est également vendu sous le nom commercial Viroptic . Aux États-Unis, un flacon de 7,5 ml coûte environ 74 dollars américains. C'est également un composant du médicament anticancéreux trifluridine/tipiracil .
 </t>
         </is>
       </c>
